--- a/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/wm/multimedia/excel/服务单号已存在.xlsx
+++ b/src/main/java/com/haisheng/framework/testng/bigScreen/jiaochen/wm/multimedia/excel/服务单号已存在.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A50671-5B29-47AF-8E13-4B7D0566D3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE73E69A-0EDE-4A87-949E-2A41F58EDC63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,28 +421,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="8" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="13.4140625" customWidth="1"/>
-    <col min="10" max="10" width="15.08203125" customWidth="1"/>
-    <col min="11" max="11" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -523,6 +523,10 @@
       <c r="M2" s="1">
         <v>44115</v>
       </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
